--- a/medium.xlsx
+++ b/medium.xlsx
@@ -21,12 +21,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="34">
   <si>
     <t xml:space="preserve">9.12.2019 17:30</t>
   </si>
   <si>
     <t xml:space="preserve">10.12.2019 17:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.12.2019 16:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.12.2019 17:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.12.2019 17:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.12.2019 16:40</t>
   </si>
   <si>
     <t xml:space="preserve">Square</t>
@@ -92,7 +104,19 @@
     <t xml:space="preserve">9.12.2019 17:40</t>
   </si>
   <si>
-    <t xml:space="preserve">10.12.2019 17:40</t>
+    <t xml:space="preserve">10.12.2019 16:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.12.2019 17:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.12.2019 17:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.12.2019 17:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.12.2019 17:00</t>
   </si>
   <si>
     <t xml:space="preserve">Count</t>
@@ -217,10 +241,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BL18"/>
+  <dimension ref="A1:BL19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB19" activeCellId="0" sqref="AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -241,23 +265,33 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
+      <c r="U1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
+      <c r="Y1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
@@ -300,49 +334,89 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
@@ -382,7 +456,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>0</v>
@@ -394,37 +468,77 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="T3" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <v>94</v>
+      </c>
+      <c r="X3" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3" t="n">
+        <v>98</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>9</v>
+      </c>
       <c r="AC3" s="2"/>
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
@@ -464,7 +578,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>0</v>
@@ -476,37 +590,77 @@
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>93</v>
+      </c>
+      <c r="X4" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="3" t="n">
+        <v>93</v>
+      </c>
+      <c r="AB4" s="3" t="n">
+        <v>5</v>
+      </c>
       <c r="AC4" s="2"/>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
@@ -546,7 +700,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>0</v>
@@ -558,37 +712,77 @@
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="L5" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="4"/>
+      <c r="M5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="T5" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="3" t="n">
+        <v>84</v>
+      </c>
+      <c r="X5" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3" t="n">
+        <v>103</v>
+      </c>
+      <c r="AB5" s="3" t="n">
+        <v>4</v>
+      </c>
       <c r="AC5" s="2"/>
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
@@ -628,7 +822,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>0</v>
@@ -640,37 +834,77 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="T6" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="X6" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="3" t="n">
+        <v>97</v>
+      </c>
+      <c r="AB6" s="3" t="n">
+        <v>7</v>
+      </c>
       <c r="AC6" s="2"/>
       <c r="AD6" s="3"/>
       <c r="AE6" s="3"/>
@@ -710,7 +944,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>0</v>
@@ -722,37 +956,77 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="P7" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R7" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="T7" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3" t="n">
+        <v>91</v>
+      </c>
+      <c r="X7" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3" t="n">
+        <v>97</v>
+      </c>
+      <c r="AB7" s="3" t="n">
+        <v>12</v>
+      </c>
       <c r="AC7" s="2"/>
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
@@ -792,7 +1066,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>0</v>
@@ -804,37 +1078,77 @@
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="P8" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="T8" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3" t="n">
+        <v>98</v>
+      </c>
+      <c r="X8" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="F8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="4"/>
+      <c r="Y8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB8" s="3" t="n">
+        <v>8</v>
+      </c>
       <c r="AC8" s="2"/>
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
@@ -874,7 +1188,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>0</v>
@@ -886,37 +1200,77 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="F9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="4"/>
+      <c r="H9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3" t="n">
+        <v>97</v>
+      </c>
+      <c r="X9" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB9" s="3" t="n">
+        <v>8</v>
+      </c>
       <c r="AC9" s="2"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
@@ -956,7 +1310,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>0</v>
@@ -968,37 +1322,77 @@
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="P10" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="T10" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3" t="n">
+        <v>95</v>
+      </c>
+      <c r="X10" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="F10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="4"/>
+      <c r="Y10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3" t="n">
+        <v>112</v>
+      </c>
+      <c r="AB10" s="3" t="n">
+        <v>12</v>
+      </c>
       <c r="AC10" s="2"/>
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
@@ -1038,7 +1432,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>0</v>
@@ -1050,37 +1444,77 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="P11" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="F11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="4"/>
+      <c r="Q11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="T11" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="3" t="n">
+        <v>101</v>
+      </c>
+      <c r="X11" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB11" s="3" t="n">
+        <v>9</v>
+      </c>
       <c r="AC11" s="2"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
@@ -1120,7 +1554,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>0</v>
@@ -1132,37 +1566,77 @@
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="F12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="n">
+      <c r="L12" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="H12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="4"/>
+      <c r="M12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="P12" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="T12" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" s="3" t="n">
+        <v>98</v>
+      </c>
+      <c r="X12" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="AB12" s="3" t="n">
+        <v>7</v>
+      </c>
       <c r="AC12" s="2"/>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
@@ -1202,7 +1676,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>0</v>
@@ -1214,37 +1688,77 @@
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G13" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="H13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="L13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="P13" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="T13" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W13" s="3" t="n">
+        <v>97</v>
+      </c>
+      <c r="X13" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3" t="n">
+        <v>112</v>
+      </c>
+      <c r="AB13" s="3" t="n">
+        <v>6</v>
+      </c>
       <c r="AC13" s="2"/>
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
@@ -1284,7 +1798,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>0</v>
@@ -1296,37 +1810,77 @@
         <v>2</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="P14" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="T14" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V14" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="W14" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="X14" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="3" t="n">
+        <v>84</v>
+      </c>
+      <c r="AB14" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H14" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="4"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
@@ -1366,7 +1920,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>0</v>
@@ -1378,37 +1932,77 @@
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F15" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G15" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="H15" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="L15" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="P15" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="T15" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3" t="n">
+        <v>87</v>
+      </c>
+      <c r="X15" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z15" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="4"/>
+      <c r="AA15" s="3" t="n">
+        <v>83</v>
+      </c>
+      <c r="AB15" s="3" t="n">
+        <v>4</v>
+      </c>
       <c r="AC15" s="2"/>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
@@ -1448,7 +2042,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>0</v>
@@ -1460,37 +2054,77 @@
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F16" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G16" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="H16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="L16" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="P16" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R16" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S16" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="T16" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W16" s="3" t="n">
+        <v>86</v>
+      </c>
+      <c r="X16" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="3" t="n">
+        <v>82</v>
+      </c>
+      <c r="AB16" s="3" t="n">
+        <v>7</v>
+      </c>
       <c r="AC16" s="2"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
@@ -1530,7 +2164,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>0</v>
@@ -1542,37 +2176,77 @@
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F17" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="L17" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="P17" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R17" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="T17" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" s="3" t="n">
+        <v>84</v>
+      </c>
+      <c r="X17" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3" t="n">
+        <v>91</v>
+      </c>
+      <c r="AB17" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="H17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="4"/>
       <c r="AC17" s="2"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
@@ -1612,7 +2286,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>0</v>
@@ -1624,37 +2298,77 @@
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="H18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="L18" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="P18" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="T18" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3" t="n">
+        <v>85</v>
+      </c>
+      <c r="X18" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3" t="n">
+        <v>83</v>
+      </c>
+      <c r="AB18" s="3" t="n">
+        <v>9</v>
+      </c>
       <c r="AC18" s="2"/>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
@@ -1692,6 +2406,29 @@
       <c r="BK18" s="3"/>
       <c r="BL18" s="4"/>
     </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y19" s="0" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="A1:D1"/>
@@ -1728,8 +2465,8 @@
   </sheetPr>
   <dimension ref="A1:AV11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T11" activeCellId="0" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1739,28 +2476,38 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
+      <c r="P1" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
+      <c r="S1" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
@@ -1793,38 +2540,68 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -1855,7 +2632,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>92</v>
@@ -1864,29 +2641,59 @@
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>526</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>256</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>390</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <v>226</v>
+      </c>
+      <c r="R3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="3" t="n">
+        <v>268</v>
+      </c>
+      <c r="U3" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="V3" s="2"/>
       <c r="W3" s="3"/>
       <c r="X3" s="2"/>
@@ -1917,7 +2724,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>117</v>
@@ -1926,29 +2733,63 @@
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>131</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>556</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>263</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <f aca="false">L3</f>
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="n">
-        <v>117</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>338</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <f aca="false">O3</f>
+        <v>8</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>222</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <f aca="false">R3</f>
+        <v>2</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>253</v>
+      </c>
+      <c r="U4" s="2" t="n">
+        <f aca="false">U3</f>
+        <v>2</v>
+      </c>
       <c r="V4" s="2"/>
       <c r="W4" s="3"/>
       <c r="X4" s="2"/>
@@ -1979,7 +2820,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>97</v>
@@ -1988,29 +2829,63 @@
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>555</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>274</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <f aca="false">L4</f>
+        <v>8</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="3" t="n">
+        <v>346</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <f aca="false">O4</f>
+        <v>8</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="3" t="n">
+        <v>322</v>
+      </c>
+      <c r="R5" s="2" t="n">
+        <f aca="false">R4</f>
+        <v>2</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T5" s="3" t="n">
+        <v>260</v>
+      </c>
+      <c r="U5" s="2" t="n">
+        <f aca="false">U4</f>
+        <v>2</v>
+      </c>
       <c r="V5" s="2"/>
       <c r="W5" s="3"/>
       <c r="X5" s="2"/>
@@ -2041,7 +2916,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>113</v>
@@ -2050,29 +2925,63 @@
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>545</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>271</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <f aca="false">L5</f>
+        <v>8</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>337</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <f aca="false">O5</f>
+        <v>8</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="3" t="n">
+        <v>241</v>
+      </c>
+      <c r="R6" s="2" t="n">
+        <f aca="false">R5</f>
+        <v>2</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" s="3" t="n">
+        <v>296</v>
+      </c>
+      <c r="U6" s="2" t="n">
+        <f aca="false">U5</f>
+        <v>2</v>
+      </c>
       <c r="V6" s="2"/>
       <c r="W6" s="3"/>
       <c r="X6" s="2"/>
@@ -2103,7 +3012,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>118</v>
@@ -2112,29 +3021,63 @@
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>540</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>324</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <f aca="false">L6</f>
+        <v>8</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <v>396</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <f aca="false">O6</f>
+        <v>8</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="3" t="n">
+        <v>303</v>
+      </c>
+      <c r="R7" s="2" t="n">
+        <f aca="false">R6</f>
+        <v>2</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T7" s="3" t="n">
+        <v>290</v>
+      </c>
+      <c r="U7" s="2" t="n">
+        <f aca="false">U6</f>
+        <v>2</v>
+      </c>
       <c r="V7" s="2"/>
       <c r="W7" s="3"/>
       <c r="X7" s="2"/>
@@ -2165,7 +3108,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>112</v>
@@ -2174,29 +3117,63 @@
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>543</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>263</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <f aca="false">L7</f>
+        <v>8</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>362</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <f aca="false">O7</f>
+        <v>8</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="3" t="n">
+        <v>248</v>
+      </c>
+      <c r="R8" s="2" t="n">
+        <f aca="false">R7</f>
+        <v>2</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="3" t="n">
+        <v>283</v>
+      </c>
+      <c r="U8" s="2" t="n">
+        <f aca="false">U7</f>
+        <v>2</v>
+      </c>
       <c r="V8" s="2"/>
       <c r="W8" s="3"/>
       <c r="X8" s="2"/>
@@ -2227,7 +3204,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>86</v>
@@ -2236,29 +3213,63 @@
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>538</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>260</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <f aca="false">L8</f>
+        <v>8</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>365</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <f aca="false">O8</f>
+        <v>8</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>306</v>
+      </c>
+      <c r="R9" s="2" t="n">
+        <f aca="false">R8</f>
+        <v>2</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>225</v>
+      </c>
+      <c r="U9" s="2" t="n">
+        <f aca="false">U8</f>
+        <v>2</v>
+      </c>
       <c r="V9" s="2"/>
       <c r="W9" s="3"/>
       <c r="X9" s="2"/>
@@ -2289,7 +3300,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>83</v>
@@ -2298,29 +3309,63 @@
         <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>507</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>286</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <f aca="false">L9</f>
+        <v>8</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>294</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <f aca="false">O9</f>
+        <v>8</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="3" t="n">
+        <v>264</v>
+      </c>
+      <c r="R10" s="2" t="n">
+        <f aca="false">R9</f>
+        <v>2</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T10" s="3" t="n">
+        <v>313</v>
+      </c>
+      <c r="U10" s="2" t="n">
+        <f aca="false">U9</f>
+        <v>2</v>
+      </c>
       <c r="V10" s="2"/>
       <c r="W10" s="3"/>
       <c r="X10" s="2"/>
@@ -2354,7 +3399,22 @@
         <v>23.9</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>23.9</v>
+        <v>24.3</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>23.5</v>
       </c>
     </row>
   </sheetData>
